--- a/document/服务器地址.xlsx
+++ b/document/服务器地址.xlsx
@@ -63,6 +63,7 @@
   </si>
   <si>
     <t>Miyoo123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -409,7 +410,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
